--- a/doc/CS_BasicImmunization_Texts:20240411.xlsx
+++ b/doc/CS_BasicImmunization_Texts:20240411.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="51">
   <si>
     <t xml:space="preserve">Code</t>
   </si>
@@ -43,10 +43,10 @@
     <t xml:space="preserve">bi-dtpa</t>
   </si>
   <si>
-    <t xml:space="preserve">Alle Impfungen gegen DTPa in der Kindheit erhalten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received all vaccinations against DTPa in childhood.</t>
+    <t xml:space="preserve">Grundimmunisierung gegen DTPa in der Kindheit erhalten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received basic immunization against DTPa in childhood.</t>
   </si>
   <si>
     <t xml:space="preserve">Avoir reçu tous les vaccins contre le DTPa dans l'enfance.</t>
@@ -61,10 +61,10 @@
     <t xml:space="preserve">bi-polio</t>
   </si>
   <si>
-    <t xml:space="preserve">Alle Impfungen gegen Poliomyelitis in der Kindheit erhalten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received all vaccinations against poliomyelitis in childhood.</t>
+    <t xml:space="preserve">Grundimmunisierung gegen Poliomyelitis in der Kindheit erhalten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received basic immunization against poliomyelitis in childhood.</t>
   </si>
   <si>
     <t xml:space="preserve">Avoir reçu tous les vaccins contre la poliomyélite dans l'enfance.</t>
@@ -79,118 +79,100 @@
     <t xml:space="preserve">bi-fsme</t>
   </si>
   <si>
-    <t xml:space="preserve">Alle Impfungen gegen die Frühsommer-Meningoenzephalitis erhalten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received all vaccinations against tick-borne encephalitis.</t>
+    <t xml:space="preserve">Grundimmunisierung gegen die Frühsommer-Meningoenzephalitis erhalten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received basic immunization against tick-borne encephalitis.</t>
   </si>
   <si>
     <t xml:space="preserve">bi-hib</t>
   </si>
   <si>
-    <t xml:space="preserve">Alle Impfungen gegen Hämophilus influenzae Typ b erhalten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received all vaccinations against Haemophilus influenzae type b.</t>
+    <t xml:space="preserve">Grundimmunisierung gegen Hämophilus influenzae Typ b erhalten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received basic immunization against Haemophilus influenzae type b.</t>
   </si>
   <si>
     <t xml:space="preserve">bi-hpv</t>
   </si>
   <si>
-    <t xml:space="preserve">Alle Impfungen gegen Humanes Papillomavirus erhalten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received all vaccinations against Human papillomavirus.</t>
+    <t xml:space="preserve">Grundimmunisierung gegen Humanes Papillomavirus erhalten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received basic immunization against Human papillomavirus.</t>
   </si>
   <si>
     <t xml:space="preserve">bi-variz</t>
   </si>
   <si>
-    <t xml:space="preserve">Alle Impfungen gegen Windpocken erhalten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received all vaccinations against varicella.</t>
+    <t xml:space="preserve">Grundimmunisierung gegen Windpocken erhalten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received basic immunization against varicella.</t>
   </si>
   <si>
     <t xml:space="preserve">bi-mmr</t>
   </si>
   <si>
-    <t xml:space="preserve">Alle Impfungen gegen Masern, Mumps, Röteln erhalten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received all vaccinations against .</t>
+    <t xml:space="preserve">Grundimmunisierung gegen Masern, Mumps, Röteln erhalten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received basic immunization against .</t>
   </si>
   <si>
     <t xml:space="preserve">bi-pneumo</t>
   </si>
   <si>
-    <t xml:space="preserve">Alle Impfungen gegen Pneumokokken-Erkrankung erhalten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received all vaccinations against Pneumococcal infectious disease.</t>
+    <t xml:space="preserve">Grundimmunisierung gegen Pneumokokken-Erkrankung erhalten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received basic immunization against Pneumococcal infectious disease.</t>
   </si>
   <si>
     <t xml:space="preserve">bi-hepb</t>
   </si>
   <si>
-    <t xml:space="preserve">Alle Impfungen gegen virale Hepatitis Typ B erhalten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received all vaccinations against viral hepatitis type B.</t>
+    <t xml:space="preserve">Grundimmunisierung gegen virale Hepatitis Typ B erhalten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received basic immunization against viral hepatitis type B.</t>
   </si>
   <si>
     <t xml:space="preserve">bi-hepa</t>
   </si>
   <si>
-    <t xml:space="preserve">Alle Impfungen gegen virale Hepatitis Typ A erhalten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received all vaccinations against viral hepatitis type A.</t>
+    <t xml:space="preserve">Grundimmunisierung gegen virale Hepatitis Typ A erhalten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received basic immunization against viral hepatitis type A.</t>
   </si>
   <si>
     <t xml:space="preserve">bi-herpzos</t>
   </si>
   <si>
-    <t xml:space="preserve">Alle Impfungen gegen Herpes zoster erhalten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received all vaccinations against herpes zoster.</t>
+    <t xml:space="preserve">Grundimmunisierung gegen Herpes zoster erhalten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received basic immunization against herpes zoster.</t>
   </si>
   <si>
     <t xml:space="preserve">bi-mening</t>
   </si>
   <si>
-    <t xml:space="preserve">Alle Impfungen gegen Meningokokken-Erkrankung erhalten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received all vaccinations against meningococcal infectious disease.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bi-twut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alle Impfungen gegen Tollwut erhalten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received all vaccinations against rabies.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bi-covid19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alle Impfungen gegen COVID-19 erhalten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received all vaccinations against COVID-19.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bi-flu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alle Impfungen gegen die Grippe erhalten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Received all vaccinations against flu.</t>
+    <t xml:space="preserve">Grundimmunisierung gegen Meningokokken-Erkrankung erhalten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received basic immunization against meningococcal infectious disease.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bi-rabi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grundimmunisierung gegen Tollwut erhalten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Received basic immunization against rabies.</t>
   </si>
 </sst>
 </file>
@@ -205,6 +187,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -226,11 +209,13 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -308,10 +293,10 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D31" activeCellId="0" sqref="D31"/>
+      <selection pane="topLeft" activeCell="C32" activeCellId="0" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="71.75"/>
@@ -630,46 +615,22 @@
       <c r="H14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>52</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
